--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H2">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>475.4515963923429</v>
+        <v>699.4872417617777</v>
       </c>
       <c r="R2">
-        <v>475.4515963923429</v>
+        <v>6295.385175855999</v>
       </c>
       <c r="S2">
-        <v>0.05239443485085116</v>
+        <v>0.06208649796669077</v>
       </c>
       <c r="T2">
-        <v>0.05239443485085116</v>
+        <v>0.06208649796669078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H3">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>1528.011010646327</v>
+        <v>1878.267714013986</v>
       </c>
       <c r="R3">
-        <v>1528.011010646327</v>
+        <v>16904.40942612588</v>
       </c>
       <c r="S3">
-        <v>0.1683857493721133</v>
+        <v>0.1667150701895797</v>
       </c>
       <c r="T3">
-        <v>0.1683857493721133</v>
+        <v>0.1667150701895797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H4">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>2028.610979246621</v>
+        <v>2686.702717208589</v>
       </c>
       <c r="R4">
-        <v>2028.610979246621</v>
+        <v>24180.3244548773</v>
       </c>
       <c r="S4">
-        <v>0.2235515173286949</v>
+        <v>0.2384717730790048</v>
       </c>
       <c r="T4">
-        <v>0.2235515173286949</v>
+        <v>0.2384717730790048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H5">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I5">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J5">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>528.3538434650835</v>
+        <v>850.4334282268777</v>
       </c>
       <c r="R5">
-        <v>528.3538434650835</v>
+        <v>7653.900854041899</v>
       </c>
       <c r="S5">
-        <v>0.05822422564080376</v>
+        <v>0.07548448371899825</v>
       </c>
       <c r="T5">
-        <v>0.05822422564080376</v>
+        <v>0.07548448371899825</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H6">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N6">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q6">
-        <v>329.129734854075</v>
+        <v>403.8381874807466</v>
       </c>
       <c r="R6">
-        <v>329.129734854075</v>
+        <v>3634.54368732672</v>
       </c>
       <c r="S6">
-        <v>0.03626986759775126</v>
+        <v>0.03584468351809405</v>
       </c>
       <c r="T6">
-        <v>0.03626986759775126</v>
+        <v>0.03584468351809406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H7">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N7">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q7">
-        <v>1057.760374776674</v>
+        <v>1084.388940848387</v>
       </c>
       <c r="R7">
-        <v>1057.760374776674</v>
+        <v>9759.500467635482</v>
       </c>
       <c r="S7">
-        <v>0.1165644567492736</v>
+        <v>0.0962503784937</v>
       </c>
       <c r="T7">
-        <v>0.1165644567492736</v>
+        <v>0.0962503784937</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H8">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I8">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J8">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N8">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q8">
-        <v>1404.298983929669</v>
+        <v>1551.126440682997</v>
       </c>
       <c r="R8">
-        <v>1404.298983929669</v>
+        <v>13960.13796614698</v>
       </c>
       <c r="S8">
-        <v>0.1547527701724306</v>
+        <v>0.1376780059104254</v>
       </c>
       <c r="T8">
-        <v>0.1547527701724306</v>
+        <v>0.1376780059104254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H9">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I9">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J9">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N9">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q9">
-        <v>365.7511337185511</v>
+        <v>490.9846437844586</v>
       </c>
       <c r="R9">
-        <v>365.7511337185511</v>
+        <v>4418.861794060128</v>
       </c>
       <c r="S9">
-        <v>0.04030552025200898</v>
+        <v>0.04357980427380242</v>
       </c>
       <c r="T9">
-        <v>0.04030552025200898</v>
+        <v>0.04357980427380242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H10">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N10">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q10">
-        <v>50.26421984642006</v>
+        <v>63.91548257272888</v>
       </c>
       <c r="R10">
-        <v>50.26421984642006</v>
+        <v>575.2393431545599</v>
       </c>
       <c r="S10">
-        <v>0.005539082026551649</v>
+        <v>0.005673139182348745</v>
       </c>
       <c r="T10">
-        <v>0.005539082026551649</v>
+        <v>0.005673139182348746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H11">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I11">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J11">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N11">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q11">
-        <v>161.5396434666685</v>
+        <v>171.6262716094906</v>
       </c>
       <c r="R11">
-        <v>161.5396434666685</v>
+        <v>1544.636444485415</v>
       </c>
       <c r="S11">
-        <v>0.01780155622499956</v>
+        <v>0.01523355041683852</v>
       </c>
       <c r="T11">
-        <v>0.01780155622499956</v>
+        <v>0.01523355041683852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H12">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I12">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J12">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N12">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q12">
-        <v>214.4625215635427</v>
+        <v>245.4968303172164</v>
       </c>
       <c r="R12">
-        <v>214.4625215635427</v>
+        <v>2209.471472854948</v>
       </c>
       <c r="S12">
-        <v>0.02363362053944566</v>
+        <v>0.02179030230477002</v>
       </c>
       <c r="T12">
-        <v>0.02363362053944566</v>
+        <v>0.02179030230477002</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H13">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I13">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J13">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N13">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q13">
-        <v>55.85698722255394</v>
+        <v>77.70815493960488</v>
       </c>
       <c r="R13">
-        <v>55.85698722255394</v>
+        <v>699.3733944564439</v>
       </c>
       <c r="S13">
-        <v>0.006155401096985485</v>
+        <v>0.006897376986464292</v>
       </c>
       <c r="T13">
-        <v>0.006155401096985485</v>
+        <v>0.006897376986464292</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H14">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I14">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J14">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N14">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q14">
-        <v>91.22148476615817</v>
+        <v>121.5240024827733</v>
       </c>
       <c r="R14">
-        <v>91.22148476615817</v>
+        <v>1093.71602234496</v>
       </c>
       <c r="S14">
-        <v>0.01005254410090221</v>
+        <v>0.01078647226509445</v>
       </c>
       <c r="T14">
-        <v>0.01005254410090221</v>
+        <v>0.01078647226509445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H15">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I15">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J15">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N15">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q15">
-        <v>293.1685037716716</v>
+        <v>326.3170458495434</v>
       </c>
       <c r="R15">
-        <v>293.1685037716716</v>
+        <v>2936.85341264589</v>
       </c>
       <c r="S15">
-        <v>0.03230696497338279</v>
+        <v>0.02896390583566078</v>
       </c>
       <c r="T15">
-        <v>0.03230696497338279</v>
+        <v>0.02896390583566078</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H16">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I16">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J16">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N16">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q16">
-        <v>389.2150261855492</v>
+        <v>466.7688675124187</v>
       </c>
       <c r="R16">
-        <v>389.2150261855492</v>
+        <v>4200.919807611768</v>
       </c>
       <c r="S16">
-        <v>0.04289122486324142</v>
+        <v>0.04143041161227353</v>
       </c>
       <c r="T16">
-        <v>0.04289122486324142</v>
+        <v>0.04143041161227353</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H17">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I17">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J17">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N17">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q17">
-        <v>101.3714591527396</v>
+        <v>147.7483331689893</v>
       </c>
       <c r="R17">
-        <v>101.3714591527396</v>
+        <v>1329.734998520904</v>
       </c>
       <c r="S17">
-        <v>0.01117106421056382</v>
+        <v>0.01311414424625416</v>
       </c>
       <c r="T17">
-        <v>0.01117106421056382</v>
+        <v>0.01311414424625416</v>
       </c>
     </row>
   </sheetData>
